--- a/Hashi/Puzzle.xlsx
+++ b/Hashi/Puzzle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\APLAI\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\APLAI\Hashi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48539519-C247-45AF-BA98-C13A5462641C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D19981-631A-49D8-80D7-B958659CE99D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7500" xr2:uid="{C82A684F-926F-45E8-9CAA-F5C85BA859A0}"/>
   </bookViews>
@@ -966,7 +966,7 @@
   <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,9 @@
       <c r="AB2" s="30"/>
       <c r="AC2" s="30"/>
       <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
+      <c r="AE2" s="31">
+        <v>3</v>
+      </c>
       <c r="AF2" s="31"/>
       <c r="AG2" s="30"/>
       <c r="AH2" s="30"/>
@@ -1130,7 +1132,9 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
+      <c r="AE4" s="10">
+        <v>3</v>
+      </c>
       <c r="AF4" s="10"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
@@ -1178,7 +1182,9 @@
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
+      <c r="AE5" s="12">
+        <v>3</v>
+      </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
